--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>RUN_DATE</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>16-05-2022 18:04:48</t>
+  </si>
+  <si>
+    <t>16-05-2022 18:10:32</t>
+  </si>
+  <si>
+    <t>16-05-2022 18:11:03</t>
   </si>
 </sst>
 </file>
@@ -401,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,6 +505,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -533,7 +533,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>0</v>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -533,7 +533,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>0</v>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -533,7 +533,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>0</v>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -533,7 +533,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>0</v>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -533,7 +533,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C6">
         <v>0</v>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>RUN_DATE</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>16-05-2022 18:11:03</t>
+  </si>
+  <si>
+    <t>17-05-2022 10:44:13</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -533,7 +536,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -549,6 +552,29 @@
       </c>
       <c r="G6">
         <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>56</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>RUN_DATE</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>17-05-2022 10:44:13</t>
+  </si>
+  <si>
+    <t>17-05-2022 10:48:38</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,7 +562,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -571,10 +574,33 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>RUN_DATE</t>
   </si>
@@ -52,10 +52,37 @@
     <t>16-05-2022 18:11:03</t>
   </si>
   <si>
-    <t>17-05-2022 10:44:13</t>
-  </si>
-  <si>
-    <t>17-05-2022 10:48:38</t>
+    <t>17-05-2022 11:13:28</t>
+  </si>
+  <si>
+    <t>17-05-2022 11:14:49</t>
+  </si>
+  <si>
+    <t>17-05-2022 11:15:10</t>
+  </si>
+  <si>
+    <t>17-05-2022 11:17:28</t>
+  </si>
+  <si>
+    <t>17-05-2022 11:19:45</t>
+  </si>
+  <si>
+    <t>17-05-2022 11:24:23</t>
+  </si>
+  <si>
+    <t>17-05-2022 11:27:56</t>
+  </si>
+  <si>
+    <t>17-05-2022 11:31:10</t>
+  </si>
+  <si>
+    <t>17-05-2022 11:33:20</t>
+  </si>
+  <si>
+    <t>17-05-2022 11:41:00</t>
+  </si>
+  <si>
+    <t>17-05-2022 11:43:32</t>
   </si>
 </sst>
 </file>
@@ -413,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,22 +589,22 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -585,21 +612,228 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>78</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>64</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>2</v>
       </c>
-      <c r="E8">
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="G8">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>119</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>0</v>
       </c>
     </row>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>RUN_DATE</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>17-05-2022 11:43:32</t>
+  </si>
+  <si>
+    <t>17-05-2022 11:51:22</t>
   </si>
 </sst>
 </file>
@@ -440,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -837,6 +840,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -845,7 +845,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>0</v>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -845,7 +845,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>0</v>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -845,7 +845,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C18">
         <v>0</v>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -845,7 +845,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C18">
         <v>0</v>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -845,7 +845,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C18">
         <v>0</v>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -845,7 +845,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C18">
         <v>0</v>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>RUN_DATE</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>17-05-2022 11:51:22</t>
+  </si>
+  <si>
+    <t>17-05-2022 11:53:30</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -845,7 +848,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -861,6 +864,29 @@
       </c>
       <c r="G18">
         <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>59</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>RUN_DATE</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>17-05-2022 11:53:30</t>
+  </si>
+  <si>
+    <t>17-05-2022 11:58:06</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -871,7 +874,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -887,6 +890,29 @@
       </c>
       <c r="G19">
         <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>56</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>RUN_DATE</t>
   </si>
@@ -92,6 +92,27 @@
   </si>
   <si>
     <t>17-05-2022 11:58:06</t>
+  </si>
+  <si>
+    <t>17-05-2022 12:00:49</t>
+  </si>
+  <si>
+    <t>17-05-2022 12:03:06</t>
+  </si>
+  <si>
+    <t>17-05-2022 12:04:01</t>
+  </si>
+  <si>
+    <t>17-05-2022 12:04:35</t>
+  </si>
+  <si>
+    <t>17-05-2022 12:05:43</t>
+  </si>
+  <si>
+    <t>17-05-2022 12:06:26</t>
+  </si>
+  <si>
+    <t>17-05-2022 12:12:19</t>
   </si>
 </sst>
 </file>
@@ -449,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -897,7 +918,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -912,6 +933,167 @@
         <v>0</v>
       </c>
       <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>47</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
         <v>0</v>
       </c>
     </row>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -1079,7 +1079,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C27">
         <v>0</v>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -1079,16 +1079,16 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>0</v>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -1079,7 +1079,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C27">
         <v>0</v>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -1079,7 +1079,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C27">
         <v>0</v>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -1079,7 +1079,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C27">
         <v>0</v>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -1079,7 +1079,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C27">
         <v>0</v>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -1079,7 +1079,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C27">
         <v>0</v>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>RUN_DATE</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>17-05-2022 12:12:19</t>
+  </si>
+  <si>
+    <t>17-05-2022 12:31:31</t>
   </si>
 </sst>
 </file>
@@ -470,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1097,6 +1100,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>RUN_DATE</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>17-05-2022 12:31:31</t>
+  </si>
+  <si>
+    <t>17-05-2022 12:44:18</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1123,6 +1126,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>44</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>RUN_DATE</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>17-05-2022 12:12:19</t>
+  </si>
+  <si>
+    <t>17-05-2022 12:48:00</t>
   </si>
 </sst>
 </file>
@@ -470,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1097,6 +1100,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>74</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>RUN_DATE</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>17-05-2022 12:48:00</t>
+  </si>
+  <si>
+    <t>17-05-2022 12:49:43</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1123,6 +1126,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>64</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>RUN_DATE</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>17-05-2022 12:49:43</t>
+  </si>
+  <si>
+    <t>17-05-2022 12:51:47</t>
   </si>
 </sst>
 </file>
@@ -476,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1149,6 +1152,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>296</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -1157,7 +1157,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>296</v>
+        <v>597</v>
       </c>
       <c r="C30">
         <v>0</v>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -1157,7 +1157,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>597</v>
+        <v>898</v>
       </c>
       <c r="C30">
         <v>0</v>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -1157,7 +1157,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>898</v>
+        <v>1199</v>
       </c>
       <c r="C30">
         <v>0</v>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -1157,7 +1157,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>1199</v>
+        <v>1500</v>
       </c>
       <c r="C30">
         <v>0</v>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -1157,7 +1157,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>1500</v>
+        <v>1801</v>
       </c>
       <c r="C30">
         <v>0</v>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomgr\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98AEE3F-4630-46E5-9134-7531C296129C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>RUN_DATE</t>
   </si>
@@ -41,13 +35,16 @@
   </si>
   <si>
     <t>TRANSFER_PAUSES</t>
+  </si>
+  <si>
+    <t>17-05-2022 13:25:44</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,14 +107,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -164,7 +153,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -196,27 +185,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,24 +219,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -441,16 +394,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,6 +422,29 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>296</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -429,7 +429,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>296</v>
+        <v>597</v>
       </c>
       <c r="C2">
         <v>0</v>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -429,7 +429,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>597</v>
+        <v>898</v>
       </c>
       <c r="C2">
         <v>0</v>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -429,7 +429,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>898</v>
+        <v>1199</v>
       </c>
       <c r="C2">
         <v>0</v>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -429,22 +429,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>1199</v>
+        <v>1436</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>RUN_DATE</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>17-05-2022 13:25:44</t>
+  </si>
+  <si>
+    <t>18-05-2022 11:02:29</t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,6 +450,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>99</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/USER_DATA.xlsx
+++ b/USER_DATA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>RUN_DATE</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>18-05-2022 11:02:29</t>
+  </si>
+  <si>
+    <t>18-05-2022 11:13:21</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -473,6 +476,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>219</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
